--- a/data/manualDetection/cultivation/originalFiles/kai_results_190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_6.xlsx
+++ b/data/manualDetection/cultivation/originalFiles/kai_results_190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\git\gitHub\SI_lengthOfPrimaryCilia\data\manualDetection\cultivation\originalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F9A459-9470-4E12-AF9D-67EB66E5825E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738B184-8C28-4D39-8B3D-A6C002C09EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="28800" windowHeight="15435" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF1B93-8D5A-4DDF-9B98-D3A4298A3DAA}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -424,13 +424,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.772</v>
+        <v>12.608000000000001</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.6669999999999998</v>
+        <v>17.948</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,13 +452,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.75</v>
+        <v>8.1989999999999998</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,13 +466,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>17.870999999999999</v>
+        <v>12.048999999999999</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,10 +480,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.85</v>
+        <v>6.4610000000000003</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -494,13 +494,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15.391</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,13 +508,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11.885</v>
+        <v>14.16</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,13 +522,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.0030000000000001</v>
+        <v>10.426</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11.265000000000001</v>
+        <v>12.952999999999999</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -550,13 +550,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12.364000000000001</v>
+        <v>9.0109999999999992</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>13.151</v>
+        <v>11.977</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,13 +578,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>20.632000000000001</v>
+        <v>12.170999999999999</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -592,13 +592,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>12.196</v>
+        <v>12.916</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,13 +606,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9.7509999999999994</v>
+        <v>7.1619999999999999</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,13 +620,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>13.692</v>
+        <v>13.887</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,13 +634,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10.965999999999999</v>
+        <v>14.297000000000001</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,13 +648,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.317</v>
+        <v>9.26</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,181 +662,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>19.308</v>
+        <v>10.487</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>16.446999999999999</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>12.987</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>14.099</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22">
         <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>8.359</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>11.102</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>15.29</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>13.807</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>5.0279999999999996</v>
-      </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>7.5750000000000002</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>15.023</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>11.539</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>8.2620000000000005</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
